--- a/MassUpload/templates/Sales-Price-List-Template-Mass.xlsx
+++ b/MassUpload/templates/Sales-Price-List-Template-Mass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\myxfin_st\MassUpload\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F566FE0-CE86-461E-BFE1-A56DD42B4321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5893FF-C596-4B5E-A418-413E7B56B3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="975" windowWidth="20370" windowHeight="9825" xr2:uid="{870DE2BE-B786-45D1-AE0B-A2D1F9FC237C}"/>
+    <workbookView xWindow="120" yWindow="1695" windowWidth="20370" windowHeight="9825" xr2:uid="{870DE2BE-B786-45D1-AE0B-A2D1F9FC237C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,6 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -170,9 +173,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,14 +494,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.25">
